--- a/src/test/resources/kdt.xlsx
+++ b/src/test/resources/kdt.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="26970" yWindow="0" windowWidth="15765" windowHeight="4470" activeTab="1"/>
+    <workbookView xWindow="27900" yWindow="0" windowWidth="15765" windowHeight="4470" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース一覧" sheetId="2" r:id="rId1"/>
@@ -1180,6 +1180,159 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="19256" t="9246" r="47211" b="-144"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57149" y="4591050"/>
+          <a:ext cx="4362451" cy="6648449"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="図 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect l="20720" t="35291" r="63320" b="37622"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4572000" y="5886449"/>
+          <a:ext cx="2076450" cy="1981201"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect l="20940" t="53783" r="68151" b="21084"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="7981950"/>
+          <a:ext cx="1419225" cy="1838325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:srcRect l="6147" t="12485" r="20085" b="38505"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="11553825"/>
+          <a:ext cx="5943600" cy="3514725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1566,7 +1719,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2212,8 +2365,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2501,6 +2654,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/test/resources/kdt.xlsx
+++ b/src/test/resources/kdt.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itagaki\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="27900" yWindow="0" windowWidth="15765" windowHeight="4470" activeTab="1"/>
+    <workbookView visibility="hidden" xWindow="29760" yWindow="0" windowWidth="15765" windowHeight="4470" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース一覧" sheetId="2" r:id="rId1"/>
@@ -19,6 +14,7 @@
     <sheet name="祝日" sheetId="10" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/src/test/resources/kdt.xlsx
+++ b/src/test/resources/kdt.xlsx
@@ -3,18 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itagaki\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="hidden" xWindow="29760" yWindow="0" windowWidth="15765" windowHeight="4470" activeTab="1"/>
+    <workbookView xWindow="32550" yWindow="0" windowWidth="15765" windowHeight="4470" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース一覧" sheetId="2" r:id="rId1"/>
     <sheet name="1" sheetId="15" r:id="rId2"/>
-    <sheet name="テストケースの書き方" sheetId="4" r:id="rId3"/>
-    <sheet name="画面定義" sheetId="14" r:id="rId4"/>
-    <sheet name="祝日" sheetId="10" r:id="rId5"/>
+    <sheet name="2" sheetId="16" r:id="rId3"/>
+    <sheet name="3" sheetId="17" r:id="rId4"/>
+    <sheet name="テストケースの書き方" sheetId="4" r:id="rId5"/>
+    <sheet name="画面定義" sheetId="14" r:id="rId6"/>
+    <sheet name="祝日" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="172">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -781,10 +787,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>dayscount</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>宿泊開始日</t>
     <rPh sb="0" eb="2">
       <t>シュクハク</t>
@@ -814,10 +816,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2014/1/6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>reserve_term</t>
   </si>
   <si>
@@ -894,6 +892,81 @@
   </si>
   <si>
     <t>昼からチェックインプラン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>single_smoking</t>
+  </si>
+  <si>
+    <t>double_non_smoking</t>
+  </si>
+  <si>
+    <t>double_smoking</t>
+  </si>
+  <si>
+    <t>breakfast_viking_on</t>
+  </si>
+  <si>
+    <t>plan_a</t>
+  </si>
+  <si>
+    <t>plan_b</t>
+  </si>
+  <si>
+    <t>count_single_ns</t>
+  </si>
+  <si>
+    <t>count_single_s</t>
+  </si>
+  <si>
+    <t>count_double_ns</t>
+  </si>
+  <si>
+    <t>count_double_s</t>
+  </si>
+  <si>
+    <t>plan_a_order</t>
+  </si>
+  <si>
+    <t>plan_b_order</t>
+  </si>
+  <si>
+    <t>2-1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2-2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>60000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/1/6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2014/1/15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1067,7 +1140,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1160,6 +1233,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1597,7 +1673,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1714,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1747,7 +1823,7 @@
         <v>83</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -1756,10 +1832,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1768,7 +1844,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C4" s="21">
         <v>1</v>
@@ -1780,7 +1856,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C5" s="21">
         <v>1</v>
@@ -1789,10 +1865,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1803,7 +1879,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -1813,16 +1889,16 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>134</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>136</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1833,7 +1909,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -1843,7 +1919,7 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D11" s="4"/>
     </row>
@@ -1852,10 +1928,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>31</v>
@@ -1866,10 +1942,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>12</v>
@@ -1880,10 +1956,10 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>12</v>
@@ -1894,10 +1970,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>12</v>
@@ -1908,10 +1984,10 @@
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>12</v>
@@ -1922,10 +1998,10 @@
         <v>11</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>31</v>
@@ -1964,9 +2040,827 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="21">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="21">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="21">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="21">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="21">
+        <v>522500</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>C2</f>
+        <v>2014/1/15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="31">
+        <v>41661</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="21">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="21">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="21">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="21">
+        <v>4</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="21">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="21">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>画面定義!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>テストケースの書き方!$B$12:$B$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>テストケースの書き方!$B$32:$B$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D29</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="21">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="21">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C7" s="21">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="21">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="21">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17">
+        <v>1145000</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>C2</f>
+        <v>2014/1/15</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="31">
+        <v>41664</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="21">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="21">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="21">
+        <v>3</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="21">
+        <v>3</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="21">
+        <v>5</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C28" s="21">
+        <v>5</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>テストケースの書き方!$B$32:$B$33</xm:f>
+          </x14:formula1>
+          <xm:sqref>D2:D29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>テストケースの書き方!$B$12:$B$17</xm:f>
+          </x14:formula1>
+          <xm:sqref>A2:A29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>画面定義!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B29</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -2357,12 +3251,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2531,7 +3425,7 @@
         <v>114</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>121</v>
@@ -2542,7 +3436,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>122</v>
@@ -2555,8 +3449,9 @@
       <c r="B17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>123</v>
+      <c r="C17" s="5">
+        <f>画面定義!N53</f>
+        <v>1145000</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2567,7 +3462,7 @@
         <v>93</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2630,10 +3525,10 @@
         <v>114</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2641,10 +3536,157 @@
         <v>114</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="8:14">
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>7</v>
+      </c>
+      <c r="J48">
+        <v>7000</v>
+      </c>
+      <c r="K48">
+        <f>H48*I48*J48</f>
+        <v>98000</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <f>J48*1.25</f>
+        <v>8750</v>
+      </c>
+      <c r="N48">
+        <f>H48*L48*M48</f>
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="49" spans="8:14">
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49">
+        <v>7</v>
+      </c>
+      <c r="J49">
+        <v>7000</v>
+      </c>
+      <c r="K49">
+        <f>H49*I49*J49</f>
+        <v>98000</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49">
+        <f>J49*1.25</f>
+        <v>8750</v>
+      </c>
+      <c r="N49">
+        <f>H49*L49*M49</f>
+        <v>52500</v>
+      </c>
+    </row>
+    <row r="50" spans="8:14">
+      <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
+        <v>7</v>
+      </c>
+      <c r="J50">
+        <v>12000</v>
+      </c>
+      <c r="K50">
+        <f>H50*I50*J50</f>
+        <v>252000</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <f>J50*1.25</f>
+        <v>15000</v>
+      </c>
+      <c r="N50">
+        <f>H50*L50*M50</f>
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="51" spans="8:14">
+      <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
+        <v>7</v>
+      </c>
+      <c r="J51">
+        <v>12000</v>
+      </c>
+      <c r="K51">
+        <f>H51*I51*J51</f>
+        <v>252000</v>
+      </c>
+      <c r="L51">
+        <v>3</v>
+      </c>
+      <c r="M51">
+        <f>J51*1.25</f>
+        <v>15000</v>
+      </c>
+      <c r="N51">
+        <f>H51*L51*M51</f>
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="52" spans="8:14">
+      <c r="N52">
+        <f>SUM(K48:K51,N48:N51)</f>
+        <v>1075000</v>
+      </c>
+    </row>
+    <row r="53" spans="8:14">
+      <c r="H53">
+        <v>1000</v>
+      </c>
+      <c r="I53">
+        <v>10</v>
+      </c>
+      <c r="J53">
+        <v>7</v>
+      </c>
+      <c r="K53">
+        <f>H53*I53*J53</f>
+        <v>70000</v>
+      </c>
+      <c r="N53">
+        <f>N52+K53</f>
+        <v>1145000</v>
+      </c>
+    </row>
+    <row r="54" spans="8:14">
+      <c r="N54">
+        <f>N53-10000</f>
+        <v>1135000</v>
+      </c>
+    </row>
+    <row r="55" spans="8:14">
+      <c r="N55">
+        <f>N53*0.05</f>
+        <v>57250</v>
+      </c>
+    </row>
+    <row r="56" spans="8:14">
+      <c r="N56">
+        <f>N53-N55</f>
+        <v>1087750</v>
       </c>
     </row>
   </sheetData>
@@ -2654,7 +3696,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>

--- a/src/test/resources/kdt.xlsx
+++ b/src/test/resources/kdt.xlsx
@@ -5,20 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itagaki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google ドライブ\DevNomi\DevNomiTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="32550" yWindow="0" windowWidth="15765" windowHeight="4470" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="40680" yWindow="0" windowWidth="15765" windowHeight="4470" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース一覧" sheetId="2" r:id="rId1"/>
     <sheet name="1" sheetId="15" r:id="rId2"/>
-    <sheet name="2" sheetId="16" r:id="rId3"/>
-    <sheet name="3" sheetId="17" r:id="rId4"/>
-    <sheet name="テストケースの書き方" sheetId="4" r:id="rId5"/>
-    <sheet name="画面定義" sheetId="14" r:id="rId6"/>
-    <sheet name="祝日" sheetId="10" r:id="rId7"/>
+    <sheet name="template" sheetId="16" r:id="rId3"/>
+    <sheet name="テストケースの書き方" sheetId="4" r:id="rId4"/>
+    <sheet name="画面定義" sheetId="14" r:id="rId5"/>
+    <sheet name="祝日" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="164">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -895,21 +894,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>single_smoking</t>
   </si>
   <si>
@@ -946,27 +930,11 @@
     <t>plan_b_order</t>
   </si>
   <si>
-    <t>2-1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2-2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>60000</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>2014/1/6</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2014/1/15</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>10</t>
+    <t>dayscount</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1140,7 +1108,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1236,6 +1204,12 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1791,7 +1765,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1823,7 +1797,7 @@
         <v>83</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -2040,10 +2014,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2074,9 +2048,7 @@
       <c r="B2" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>170</v>
-      </c>
+      <c r="C2" s="4"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4">
@@ -2086,9 +2058,7 @@
       <c r="B3" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>150</v>
-      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
@@ -2098,9 +2068,7 @@
       <c r="B4" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="21">
-        <v>10</v>
-      </c>
+      <c r="C4" s="21"/>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
@@ -2110,9 +2078,7 @@
       <c r="B5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="21">
-        <v>2</v>
-      </c>
+      <c r="C5" s="21"/>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
@@ -2120,11 +2086,9 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>152</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
@@ -2132,11 +2096,9 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="21">
-        <v>1</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C7" s="21"/>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
@@ -2144,11 +2106,9 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="21">
-        <v>2</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="C8" s="21"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
@@ -2156,21 +2116,19 @@
         <v>132</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="21">
-        <v>5</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
@@ -2178,243 +2136,190 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>153</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="C11" s="21"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="A12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>166</v>
-      </c>
+      <c r="C13" s="4"/>
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>134</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>144</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="21">
-        <v>522500</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f>C2</f>
-        <v>2014/1/15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="31">
-        <v>41661</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="21">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="21">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C22" s="21"/>
+      <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="21">
-        <v>2</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="21">
-        <v>4</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="21">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="21">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2427,19 +2332,19 @@
           <x14:formula1>
             <xm:f>画面定義!$C:$C</xm:f>
           </x14:formula1>
-          <xm:sqref>B2:B29</xm:sqref>
+          <xm:sqref>B2:B30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>テストケースの書き方!$B$12:$B$17</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A29</xm:sqref>
+          <xm:sqref>A2:A30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>テストケースの書き方!$B$32:$B$33</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D29</xm:sqref>
+          <xm:sqref>D2:D30</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2449,418 +2354,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C4" s="21">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C5" s="21">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="21">
-        <v>3</v>
-      </c>
-      <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="21">
-        <v>3</v>
-      </c>
-      <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="21">
-        <v>5</v>
-      </c>
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17">
-        <v>1145000</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f>C2</f>
-        <v>2014/1/15</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C19" s="31">
-        <v>41664</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C21" s="21">
-        <v>10</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="21">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C24" s="21">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C25" s="21">
-        <v>3</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C27" s="21">
-        <v>5</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C28" s="21">
-        <v>5</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>テストケースの書き方!$B$32:$B$33</xm:f>
-          </x14:formula1>
-          <xm:sqref>D2:D29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>テストケースの書き方!$B$12:$B$17</xm:f>
-          </x14:formula1>
-          <xm:sqref>A2:A29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>画面定義!$C:$C</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B29</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -3251,12 +2747,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3442,19 +2938,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
         <v>114</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="5">
-        <f>画面定義!N53</f>
-        <v>1145000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="C17" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="5" t="s">
         <v>114</v>
       </c>
@@ -3465,7 +2960,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:10">
       <c r="A19" s="5" t="s">
         <v>114</v>
       </c>
@@ -3476,7 +2971,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:10">
       <c r="A20" s="5" t="s">
         <v>114</v>
       </c>
@@ -3487,7 +2982,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:10">
       <c r="A21" s="5" t="s">
         <v>114</v>
       </c>
@@ -3498,7 +2993,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
         <v>114</v>
       </c>
@@ -3509,7 +3004,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:10">
       <c r="A23" s="5" t="s">
         <v>114</v>
       </c>
@@ -3520,7 +3015,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:10">
       <c r="A24" s="5" t="s">
         <v>114</v>
       </c>
@@ -3531,7 +3026,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:10">
       <c r="A25" s="5" t="s">
         <v>114</v>
       </c>
@@ -3542,152 +3037,11 @@
         <v>127</v>
       </c>
     </row>
-    <row r="48" spans="8:14">
-      <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="I48">
-        <v>7</v>
-      </c>
-      <c r="J48">
-        <v>7000</v>
-      </c>
-      <c r="K48">
-        <f>H48*I48*J48</f>
-        <v>98000</v>
-      </c>
-      <c r="L48">
-        <v>3</v>
-      </c>
-      <c r="M48">
-        <f>J48*1.25</f>
-        <v>8750</v>
-      </c>
-      <c r="N48">
-        <f>H48*L48*M48</f>
-        <v>52500</v>
-      </c>
-    </row>
-    <row r="49" spans="8:14">
-      <c r="H49">
-        <v>2</v>
-      </c>
-      <c r="I49">
-        <v>7</v>
-      </c>
-      <c r="J49">
-        <v>7000</v>
-      </c>
-      <c r="K49">
-        <f>H49*I49*J49</f>
-        <v>98000</v>
-      </c>
-      <c r="L49">
-        <v>3</v>
-      </c>
-      <c r="M49">
-        <f>J49*1.25</f>
-        <v>8750</v>
-      </c>
-      <c r="N49">
-        <f>H49*L49*M49</f>
-        <v>52500</v>
-      </c>
-    </row>
-    <row r="50" spans="8:14">
-      <c r="H50">
-        <v>3</v>
-      </c>
-      <c r="I50">
-        <v>7</v>
-      </c>
-      <c r="J50">
-        <v>12000</v>
-      </c>
-      <c r="K50">
-        <f>H50*I50*J50</f>
-        <v>252000</v>
-      </c>
-      <c r="L50">
-        <v>3</v>
-      </c>
-      <c r="M50">
-        <f>J50*1.25</f>
-        <v>15000</v>
-      </c>
-      <c r="N50">
-        <f>H50*L50*M50</f>
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="51" spans="8:14">
-      <c r="H51">
-        <v>3</v>
-      </c>
-      <c r="I51">
-        <v>7</v>
-      </c>
-      <c r="J51">
-        <v>12000</v>
-      </c>
-      <c r="K51">
-        <f>H51*I51*J51</f>
-        <v>252000</v>
-      </c>
-      <c r="L51">
-        <v>3</v>
-      </c>
-      <c r="M51">
-        <f>J51*1.25</f>
-        <v>15000</v>
-      </c>
-      <c r="N51">
-        <f>H51*L51*M51</f>
-        <v>135000</v>
-      </c>
-    </row>
-    <row r="52" spans="8:14">
-      <c r="N52">
-        <f>SUM(K48:K51,N48:N51)</f>
-        <v>1075000</v>
-      </c>
-    </row>
-    <row r="53" spans="8:14">
-      <c r="H53">
-        <v>1000</v>
-      </c>
-      <c r="I53">
-        <v>10</v>
-      </c>
-      <c r="J53">
-        <v>7</v>
-      </c>
-      <c r="K53">
-        <f>H53*I53*J53</f>
-        <v>70000</v>
-      </c>
-      <c r="N53">
-        <f>N52+K53</f>
-        <v>1145000</v>
-      </c>
-    </row>
-    <row r="54" spans="8:14">
-      <c r="N54">
-        <f>N53-10000</f>
-        <v>1135000</v>
-      </c>
-    </row>
-    <row r="55" spans="8:14">
-      <c r="N55">
-        <f>N53*0.05</f>
-        <v>57250</v>
-      </c>
-    </row>
-    <row r="56" spans="8:14">
-      <c r="N56">
-        <f>N53-N55</f>
-        <v>1087750</v>
-      </c>
+    <row r="27" spans="1:10">
+      <c r="J27" s="32"/>
+    </row>
+    <row r="33" spans="12:12">
+      <c r="L33" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3696,12 +3050,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="A1:F31"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/src/test/resources/kdt.xlsx
+++ b/src/test/resources/kdt.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Google ドライブ\DevNomi\DevNomiTest\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="24526"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="40680" yWindow="0" windowWidth="15765" windowHeight="4470" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="1120" yWindow="0" windowWidth="25600" windowHeight="16060" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="テストケース一覧" sheetId="2" r:id="rId1"/>
@@ -19,8 +14,14 @@
     <sheet name="画面定義" sheetId="14" r:id="rId5"/>
     <sheet name="祝日" sheetId="10" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">画面定義!$A$1:$G$88</definedName>
+  </definedNames>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="163">
   <si>
     <t>id</t>
     <phoneticPr fontId="1"/>
@@ -80,24 +81,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>テストスイート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>テストケース</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>正常/異常</t>
-    <rPh sb="0" eb="2">
-      <t>セイジョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>イジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -935,6 +918,20 @@
   </si>
   <si>
     <t>dayscount</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名前</t>
+    <rPh sb="0" eb="2">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テストケース概要</t>
+    <rPh sb="6" eb="8">
+      <t>ガイヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -945,7 +942,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1015,25 +1012,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -1041,14 +1038,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,49 +1053,49 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1269,14 +1266,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
@@ -1294,8 +1291,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4572000" y="5886449"/>
-          <a:ext cx="2076450" cy="1981201"/>
+          <a:off x="4419600" y="7397749"/>
+          <a:ext cx="2038350" cy="2470151"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1424,7 +1421,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1459,7 +1456,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1636,7 +1633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1644,119 +1641,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="4.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="60.625" customWidth="1"/>
-    <col min="5" max="5" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.6640625" customWidth="1"/>
+    <col min="3" max="3" width="70.83203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>7</v>
+        <v>161</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="5">
         <v>1</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="5">
         <v>2</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="5">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:4">
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="5">
         <v>6</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-    </row>
-    <row r="8" spans="1:4">
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" s="5">
         <v>7</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-    </row>
-    <row r="9" spans="1:4">
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" s="5">
         <v>8</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-    </row>
-    <row r="10" spans="1:4">
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="5">
         <v>9</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="5">
         <v>10</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1764,15 +1752,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1794,10 +1782,10 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D2" s="4"/>
     </row>
@@ -1806,10 +1794,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D3" s="2"/>
     </row>
@@ -1818,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C4" s="21">
         <v>1</v>
@@ -1830,7 +1818,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C5" s="21">
         <v>1</v>
@@ -1839,10 +1827,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1853,7 +1841,7 @@
       </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D7" s="4"/>
     </row>
@@ -1863,16 +1851,16 @@
       </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
@@ -1883,7 +1871,7 @@
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D10" s="4"/>
     </row>
@@ -1893,98 +1881,98 @@
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>138</v>
-      </c>
       <c r="D12" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -2008,6 +1996,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -2016,15 +2007,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D30"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="27.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2046,7 +2037,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
@@ -2056,7 +2047,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2066,7 +2057,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="2"/>
@@ -2076,7 +2067,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="2"/>
@@ -2086,7 +2077,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -2096,7 +2087,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="2"/>
@@ -2106,27 +2097,27 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
@@ -2136,7 +2127,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C11" s="21"/>
       <c r="D11" s="2"/>
@@ -2146,7 +2137,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
@@ -2169,10 +2160,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
@@ -2195,120 +2186,120 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C18" s="21"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C20" s="31"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C22" s="21"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C23" s="21"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C25" s="21"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C26" s="21"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C28" s="21"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C29" s="21"/>
       <c r="D29" s="2"/>
@@ -2324,7 +2315,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
@@ -2348,6 +2339,9 @@
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
   </extLst>
 </worksheet>
 </file>
@@ -2356,50 +2350,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E53"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="1" max="1" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="18"/>
       <c r="B6" s="8" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2429,7 +2423,7 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -2438,7 +2432,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="18"/>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2450,19 +2444,19 @@
     <row r="13" spans="1:5">
       <c r="A13" s="18"/>
       <c r="B13" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="18"/>
       <c r="B14" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="18"/>
       <c r="B15" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2479,33 +2473,33 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="18" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="18"/>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="18"/>
       <c r="B20" s="8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="18"/>
       <c r="B21" s="17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
@@ -2514,7 +2508,7 @@
     <row r="23" spans="1:5">
       <c r="A23" s="18"/>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2523,7 +2517,7 @@
         <v>4</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24" s="12"/>
       <c r="E24" s="13"/>
@@ -2531,10 +2525,10 @@
     <row r="25" spans="1:5">
       <c r="A25" s="18"/>
       <c r="B25" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D25" s="14"/>
       <c r="E25" s="15"/>
@@ -2542,10 +2536,10 @@
     <row r="26" spans="1:5">
       <c r="A26" s="18"/>
       <c r="B26" s="10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D26" s="14"/>
       <c r="E26" s="15"/>
@@ -2553,10 +2547,10 @@
     <row r="27" spans="1:5">
       <c r="A27" s="18"/>
       <c r="B27" s="9" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D27" s="12"/>
       <c r="E27" s="13"/>
@@ -2567,7 +2561,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D28" s="12"/>
       <c r="E28" s="13"/>
@@ -2578,14 +2572,14 @@
         <v>6</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D29" s="12"/>
       <c r="E29" s="13"/>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B30" s="16" t="s">
         <v>3</v>
@@ -2597,7 +2591,7 @@
     <row r="31" spans="1:5">
       <c r="A31" s="11"/>
       <c r="B31" s="16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -2605,7 +2599,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="B32" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -2613,7 +2607,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="B33" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -2621,21 +2615,21 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="19" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="19"/>
       <c r="B36" s="8" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C36" s="17"/>
       <c r="D36" s="17"/>
@@ -2643,7 +2637,7 @@
     <row r="37" spans="1:5">
       <c r="A37" s="19"/>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2652,389 +2646,397 @@
     <row r="39" spans="1:5">
       <c r="A39" s="19"/>
       <c r="B39" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="B40" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="B41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="C42" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="B43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="B44" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C44" s="17"/>
     </row>
     <row r="45" spans="1:5">
       <c r="B45" s="17"/>
       <c r="C45" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="B46" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C46" s="17"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B47" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C47" s="17"/>
     </row>
     <row r="48" spans="1:5">
       <c r="B48" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C48" s="17"/>
     </row>
     <row r="49" spans="1:3">
       <c r="B49" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C49" s="17"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="B51" s="20" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="B53" s="20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:M1048576"/>
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -3045,8 +3047,18 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="9" scale="95" fitToHeight="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="26" max="16383" man="1"/>
+    <brk id="67" max="16383" man="1"/>
+  </rowBreaks>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="100"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -3058,34 +3070,34 @@
       <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="12" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="8.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -3102,7 +3114,7 @@
         <v>水</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E2" s="25" t="str">
         <f ca="1">IF(B2="","",IF(C2="日",LOOKUP(1,0/(B2+ROW($1:$6)-1=B2:B7),B2:B7)+1,
@@ -3122,7 +3134,7 @@
         <v>月</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E3" s="25" t="str">
         <f t="shared" ref="E3:E16" ca="1" si="1">IF(B3="","",IF(C3="日",LOOKUP(1,0/(B3+ROW($1:$6)-1=B3:B8),B3:B8)+1,
@@ -3145,7 +3157,7 @@
         <v>火</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E4" s="25" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3165,14 +3177,14 @@
         <v>金</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E5" s="25" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="F5" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3186,7 +3198,7 @@
         <v>火</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E6" s="25" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3205,7 +3217,7 @@
         <v>土</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E7" s="25" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3224,7 +3236,7 @@
         <v>日</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E8" s="25">
         <f t="shared" ca="1" si="1"/>
@@ -3243,7 +3255,7 @@
         <v>月</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E9" s="25" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3262,7 +3274,7 @@
         <v>月</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E10" s="25" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3284,7 +3296,7 @@
         <v>月</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E11" s="25" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3307,14 +3319,14 @@
         <v>火</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E12" s="25" t="str">
         <f t="shared" ca="1" si="1"/>
         <v/>
       </c>
       <c r="F12" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3328,7 +3340,7 @@
         <v>月</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E13" s="25" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3350,7 +3362,7 @@
         <v>月</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E14" s="25" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3369,7 +3381,7 @@
         <v>日</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E15" s="25">
         <f t="shared" ca="1" si="1"/>
@@ -3388,7 +3400,7 @@
         <v>火</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E16" s="25" t="str">
         <f t="shared" ca="1" si="1"/>
@@ -3410,7 +3422,7 @@
         <v>木</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E17" s="25" t="str">
         <f ca="1">IF(B17="","",IF(C17="日",LOOKUP(1,0/(B17+ROW($1:$6)-1=B17:B22),B17:B22)+1,
@@ -3430,7 +3442,7 @@
         <v>月</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E18" s="25" t="str">
         <f t="shared" ref="E18:E31" ca="1" si="2">IF(B18="","",IF(C18="日",LOOKUP(1,0/(B18+ROW($1:$6)-1=B18:B23),B18:B23)+1,
@@ -3453,7 +3465,7 @@
         <v>水</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E19" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3473,14 +3485,14 @@
         <v>土</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E20" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="F20" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3494,7 +3506,7 @@
         <v>水</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E21" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3513,7 +3525,7 @@
         <v>日</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E22" s="25">
         <f t="shared" ca="1" si="2"/>
@@ -3532,7 +3544,7 @@
         <v>月</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E23" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3551,7 +3563,7 @@
         <v>火</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E24" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3570,7 +3582,7 @@
         <v>月</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E25" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3592,7 +3604,7 @@
         <v>月</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E26" s="25">
         <f t="shared" ca="1" si="2"/>
@@ -3615,14 +3627,14 @@
         <v>水</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E27" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
         <v/>
       </c>
       <c r="F27" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3636,7 +3648,7 @@
         <v>月</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E28" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3658,7 +3670,7 @@
         <v>火</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E29" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3677,7 +3689,7 @@
         <v>月</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E30" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3696,7 +3708,7 @@
         <v>水</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E31" s="25" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -3707,6 +3719,11 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>